--- a/Agreement and discrepancy taxonomy/1. Results without using AI.xlsx
+++ b/Agreement and discrepancy taxonomy/1. Results without using AI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikiam-my.sharepoint.com/personal/carlos_mejia_ikiam_edu_ec/Documents/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pp3\SECM-CAT\Agreement and discrepancy taxonomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{1E71B896-B335-4F84-87C4-56B074E2A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994B52BA-5BE7-47E2-9EF7-76C56435FD02}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED338563-3E63-4377-8273-961E514A29A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1382522-B015-41E5-95A7-BBA01CC5FD70}"/>
   </bookViews>
@@ -2844,6 +2844,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2856,7 +2857,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2879,23 +2880,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2906,6 +3137,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA29D666-B73F-4955-A439-CF624381FA3D}" name="Tabla3" displayName="Tabla3" ref="A1:C470" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C470" xr:uid="{FFA85706-B10C-482B-8F7E-48BC05CEEF22}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F7042A00-0A31-4558-9593-19E5A6B0E2A1}" name="PUID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F048D512-DF6D-4DCD-9FCA-F123092CD944}" name="Requirement" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{52310831-590B-49E7-9D5C-139518FCC57D}" name="Response" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3227,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA85706-B10C-482B-8F7E-48BC05CEEF22}">
   <dimension ref="A1:C470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -3237,13 +3480,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3251,10 +3494,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3262,10 +3505,10 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3273,10 +3516,10 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3284,10 +3527,10 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3295,10 +3538,10 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3306,10 +3549,10 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3317,10 +3560,10 @@
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3328,10 +3571,10 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3339,10 +3582,10 @@
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3350,10 +3593,10 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3361,10 +3604,10 @@
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3372,10 +3615,10 @@
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3383,10 +3626,10 @@
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3394,10 +3637,10 @@
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3405,10 +3648,10 @@
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3416,10 +3659,10 @@
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3427,10 +3670,10 @@
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3438,10 +3681,10 @@
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3449,10 +3692,10 @@
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3460,10 +3703,10 @@
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3471,10 +3714,10 @@
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3482,10 +3725,10 @@
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3493,10 +3736,10 @@
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3504,10 +3747,10 @@
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3515,10 +3758,10 @@
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3526,10 +3769,10 @@
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3537,10 +3780,10 @@
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3548,10 +3791,10 @@
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3559,10 +3802,10 @@
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3570,10 +3813,10 @@
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3581,10 +3824,10 @@
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3592,10 +3835,10 @@
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3603,10 +3846,10 @@
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3614,10 +3857,10 @@
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3625,10 +3868,10 @@
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3636,10 +3879,10 @@
       <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3647,10 +3890,10 @@
       <c r="A38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3658,10 +3901,10 @@
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3669,10 +3912,10 @@
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3680,10 +3923,10 @@
       <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3691,10 +3934,10 @@
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3702,10 +3945,10 @@
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3713,10 +3956,10 @@
       <c r="A44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3724,10 +3967,10 @@
       <c r="A45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3735,10 +3978,10 @@
       <c r="A46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3746,10 +3989,10 @@
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3757,10 +4000,10 @@
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3768,10 +4011,10 @@
       <c r="A49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3779,10 +4022,10 @@
       <c r="A50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3790,10 +4033,10 @@
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3801,10 +4044,10 @@
       <c r="A52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3812,10 +4055,10 @@
       <c r="A53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3823,10 +4066,10 @@
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3834,10 +4077,10 @@
       <c r="A55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3845,10 +4088,10 @@
       <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3856,10 +4099,10 @@
       <c r="A57" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3867,10 +4110,10 @@
       <c r="A58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3878,10 +4121,10 @@
       <c r="A59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3889,10 +4132,10 @@
       <c r="A60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3900,10 +4143,10 @@
       <c r="A61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3911,10 +4154,10 @@
       <c r="A62" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3922,10 +4165,10 @@
       <c r="A63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3933,10 +4176,10 @@
       <c r="A64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3944,10 +4187,10 @@
       <c r="A65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3955,10 +4198,10 @@
       <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3966,10 +4209,10 @@
       <c r="A67" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3977,10 +4220,10 @@
       <c r="A68" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -3988,10 +4231,10 @@
       <c r="A69" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3999,10 +4242,10 @@
       <c r="A70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4010,10 +4253,10 @@
       <c r="A71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4021,10 +4264,10 @@
       <c r="A72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4032,10 +4275,10 @@
       <c r="A73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4043,10 +4286,10 @@
       <c r="A74" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4054,10 +4297,10 @@
       <c r="A75" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4065,10 +4308,10 @@
       <c r="A76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4076,10 +4319,10 @@
       <c r="A77" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4087,10 +4330,10 @@
       <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4098,10 +4341,10 @@
       <c r="A79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4109,10 +4352,10 @@
       <c r="A80" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4120,10 +4363,10 @@
       <c r="A81" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4131,10 +4374,10 @@
       <c r="A82" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4142,10 +4385,10 @@
       <c r="A83" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4153,10 +4396,10 @@
       <c r="A84" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4164,10 +4407,10 @@
       <c r="A85" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4175,10 +4418,10 @@
       <c r="A86" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4186,10 +4429,10 @@
       <c r="A87" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4197,10 +4440,10 @@
       <c r="A88" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4208,10 +4451,10 @@
       <c r="A89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4219,10 +4462,10 @@
       <c r="A90" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4230,10 +4473,10 @@
       <c r="A91" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4241,10 +4484,10 @@
       <c r="A92" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4252,10 +4495,10 @@
       <c r="A93" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4263,10 +4506,10 @@
       <c r="A94" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4274,10 +4517,10 @@
       <c r="A95" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4285,10 +4528,10 @@
       <c r="A96" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4296,10 +4539,10 @@
       <c r="A97" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4307,10 +4550,10 @@
       <c r="A98" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4318,10 +4561,10 @@
       <c r="A99" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4329,10 +4572,10 @@
       <c r="A100" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4340,10 +4583,10 @@
       <c r="A101" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4351,10 +4594,10 @@
       <c r="A102" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4362,10 +4605,10 @@
       <c r="A103" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4373,10 +4616,10 @@
       <c r="A104" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4384,10 +4627,10 @@
       <c r="A105" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4395,10 +4638,10 @@
       <c r="A106" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4406,10 +4649,10 @@
       <c r="A107" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4417,10 +4660,10 @@
       <c r="A108" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4428,10 +4671,10 @@
       <c r="A109" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4439,10 +4682,10 @@
       <c r="A110" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4450,10 +4693,10 @@
       <c r="A111" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4461,10 +4704,10 @@
       <c r="A112" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4472,10 +4715,10 @@
       <c r="A113" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4483,10 +4726,10 @@
       <c r="A114" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4494,10 +4737,10 @@
       <c r="A115" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4505,10 +4748,10 @@
       <c r="A116" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4516,10 +4759,10 @@
       <c r="A117" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4527,10 +4770,10 @@
       <c r="A118" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4538,10 +4781,10 @@
       <c r="A119" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4549,10 +4792,10 @@
       <c r="A120" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4560,10 +4803,10 @@
       <c r="A121" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4571,10 +4814,10 @@
       <c r="A122" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4582,10 +4825,10 @@
       <c r="A123" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4593,10 +4836,10 @@
       <c r="A124" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4604,10 +4847,10 @@
       <c r="A125" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4615,10 +4858,10 @@
       <c r="A126" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4626,10 +4869,10 @@
       <c r="A127" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4637,10 +4880,10 @@
       <c r="A128" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4648,10 +4891,10 @@
       <c r="A129" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4659,10 +4902,10 @@
       <c r="A130" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4670,10 +4913,10 @@
       <c r="A131" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4681,10 +4924,10 @@
       <c r="A132" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4692,10 +4935,10 @@
       <c r="A133" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4703,10 +4946,10 @@
       <c r="A134" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4714,10 +4957,10 @@
       <c r="A135" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4725,10 +4968,10 @@
       <c r="A136" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4736,10 +4979,10 @@
       <c r="A137" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4747,10 +4990,10 @@
       <c r="A138" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4758,10 +5001,10 @@
       <c r="A139" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4769,10 +5012,10 @@
       <c r="A140" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4780,10 +5023,10 @@
       <c r="A141" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4791,10 +5034,10 @@
       <c r="A142" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4802,10 +5045,10 @@
       <c r="A143" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4813,10 +5056,10 @@
       <c r="A144" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -4824,10 +5067,10 @@
       <c r="A145" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4835,10 +5078,10 @@
       <c r="A146" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4846,10 +5089,10 @@
       <c r="A147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4857,10 +5100,10 @@
       <c r="A148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4868,10 +5111,10 @@
       <c r="A149" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4879,10 +5122,10 @@
       <c r="A150" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4890,10 +5133,10 @@
       <c r="A151" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4901,10 +5144,10 @@
       <c r="A152" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4912,10 +5155,10 @@
       <c r="A153" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4923,10 +5166,10 @@
       <c r="A154" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4934,10 +5177,10 @@
       <c r="A155" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4945,10 +5188,10 @@
       <c r="A156" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4956,10 +5199,10 @@
       <c r="A157" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4967,10 +5210,10 @@
       <c r="A158" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4978,10 +5221,10 @@
       <c r="A159" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4989,10 +5232,10 @@
       <c r="A160" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5000,10 +5243,10 @@
       <c r="A161" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5011,10 +5254,10 @@
       <c r="A162" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5022,10 +5265,10 @@
       <c r="A163" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5033,10 +5276,10 @@
       <c r="A164" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5044,10 +5287,10 @@
       <c r="A165" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5055,10 +5298,10 @@
       <c r="A166" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5066,10 +5309,10 @@
       <c r="A167" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5077,10 +5320,10 @@
       <c r="A168" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5088,10 +5331,10 @@
       <c r="A169" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5099,10 +5342,10 @@
       <c r="A170" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5110,10 +5353,10 @@
       <c r="A171" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5121,10 +5364,10 @@
       <c r="A172" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5132,10 +5375,10 @@
       <c r="A173" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5143,10 +5386,10 @@
       <c r="A174" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5154,10 +5397,10 @@
       <c r="A175" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5165,10 +5408,10 @@
       <c r="A176" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5176,10 +5419,10 @@
       <c r="A177" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5187,10 +5430,10 @@
       <c r="A178" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5198,10 +5441,10 @@
       <c r="A179" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5209,10 +5452,10 @@
       <c r="A180" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5220,10 +5463,10 @@
       <c r="A181" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5231,10 +5474,10 @@
       <c r="A182" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5242,10 +5485,10 @@
       <c r="A183" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5253,10 +5496,10 @@
       <c r="A184" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5264,10 +5507,10 @@
       <c r="A185" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5275,10 +5518,10 @@
       <c r="A186" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5286,10 +5529,10 @@
       <c r="A187" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5297,10 +5540,10 @@
       <c r="A188" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5308,10 +5551,10 @@
       <c r="A189" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5319,10 +5562,10 @@
       <c r="A190" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5330,10 +5573,10 @@
       <c r="A191" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5341,10 +5584,10 @@
       <c r="A192" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5352,10 +5595,10 @@
       <c r="A193" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5363,10 +5606,10 @@
       <c r="A194" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5374,10 +5617,10 @@
       <c r="A195" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5385,10 +5628,10 @@
       <c r="A196" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5396,10 +5639,10 @@
       <c r="A197" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5407,10 +5650,10 @@
       <c r="A198" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5418,10 +5661,10 @@
       <c r="A199" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5429,10 +5672,10 @@
       <c r="A200" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5440,10 +5683,10 @@
       <c r="A201" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5451,10 +5694,10 @@
       <c r="A202" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5462,10 +5705,10 @@
       <c r="A203" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5473,10 +5716,10 @@
       <c r="A204" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5484,10 +5727,10 @@
       <c r="A205" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5495,10 +5738,10 @@
       <c r="A206" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5506,10 +5749,10 @@
       <c r="A207" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5517,10 +5760,10 @@
       <c r="A208" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5528,10 +5771,10 @@
       <c r="A209" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5539,10 +5782,10 @@
       <c r="A210" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5550,10 +5793,10 @@
       <c r="A211" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5561,10 +5804,10 @@
       <c r="A212" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5572,10 +5815,10 @@
       <c r="A213" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5583,10 +5826,10 @@
       <c r="A214" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5594,10 +5837,10 @@
       <c r="A215" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5605,10 +5848,10 @@
       <c r="A216" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5616,10 +5859,10 @@
       <c r="A217" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5627,10 +5870,10 @@
       <c r="A218" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5638,10 +5881,10 @@
       <c r="A219" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5649,10 +5892,10 @@
       <c r="A220" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5660,10 +5903,10 @@
       <c r="A221" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5671,10 +5914,10 @@
       <c r="A222" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5682,10 +5925,10 @@
       <c r="A223" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5693,10 +5936,10 @@
       <c r="A224" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5704,10 +5947,10 @@
       <c r="A225" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5715,10 +5958,10 @@
       <c r="A226" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5726,10 +5969,10 @@
       <c r="A227" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5737,10 +5980,10 @@
       <c r="A228" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5748,10 +5991,10 @@
       <c r="A229" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5759,10 +6002,10 @@
       <c r="A230" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5770,10 +6013,10 @@
       <c r="A231" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5781,10 +6024,10 @@
       <c r="A232" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5792,10 +6035,10 @@
       <c r="A233" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5803,10 +6046,10 @@
       <c r="A234" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5814,10 +6057,10 @@
       <c r="A235" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5825,10 +6068,10 @@
       <c r="A236" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5836,10 +6079,10 @@
       <c r="A237" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5847,10 +6090,10 @@
       <c r="A238" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5858,10 +6101,10 @@
       <c r="A239" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5869,10 +6112,10 @@
       <c r="A240" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5880,10 +6123,10 @@
       <c r="A241" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5891,10 +6134,10 @@
       <c r="A242" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5902,10 +6145,10 @@
       <c r="A243" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5913,10 +6156,10 @@
       <c r="A244" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5924,10 +6167,10 @@
       <c r="A245" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5935,10 +6178,10 @@
       <c r="A246" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5946,10 +6189,10 @@
       <c r="A247" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5957,10 +6200,10 @@
       <c r="A248" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5968,10 +6211,10 @@
       <c r="A249" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -5979,10 +6222,10 @@
       <c r="A250" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5990,10 +6233,10 @@
       <c r="A251" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6001,10 +6244,10 @@
       <c r="A252" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6012,10 +6255,10 @@
       <c r="A253" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6023,10 +6266,10 @@
       <c r="A254" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6034,10 +6277,10 @@
       <c r="A255" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6045,10 +6288,10 @@
       <c r="A256" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6056,10 +6299,10 @@
       <c r="A257" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6067,10 +6310,10 @@
       <c r="A258" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6078,10 +6321,10 @@
       <c r="A259" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6089,10 +6332,10 @@
       <c r="A260" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6100,10 +6343,10 @@
       <c r="A261" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6111,10 +6354,10 @@
       <c r="A262" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6122,10 +6365,10 @@
       <c r="A263" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6133,10 +6376,10 @@
       <c r="A264" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6144,10 +6387,10 @@
       <c r="A265" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6155,10 +6398,10 @@
       <c r="A266" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6166,10 +6409,10 @@
       <c r="A267" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6177,10 +6420,10 @@
       <c r="A268" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6188,10 +6431,10 @@
       <c r="A269" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6199,10 +6442,10 @@
       <c r="A270" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6210,10 +6453,10 @@
       <c r="A271" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6221,10 +6464,10 @@
       <c r="A272" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6232,10 +6475,10 @@
       <c r="A273" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6243,10 +6486,10 @@
       <c r="A274" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6254,10 +6497,10 @@
       <c r="A275" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6265,10 +6508,10 @@
       <c r="A276" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6276,10 +6519,10 @@
       <c r="A277" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6287,10 +6530,10 @@
       <c r="A278" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6298,10 +6541,10 @@
       <c r="A279" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6309,10 +6552,10 @@
       <c r="A280" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6320,10 +6563,10 @@
       <c r="A281" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6331,10 +6574,10 @@
       <c r="A282" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6342,10 +6585,10 @@
       <c r="A283" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6353,10 +6596,10 @@
       <c r="A284" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6364,10 +6607,10 @@
       <c r="A285" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6375,10 +6618,10 @@
       <c r="A286" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6386,10 +6629,10 @@
       <c r="A287" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6397,10 +6640,10 @@
       <c r="A288" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6408,10 +6651,10 @@
       <c r="A289" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6419,10 +6662,10 @@
       <c r="A290" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6430,10 +6673,10 @@
       <c r="A291" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6441,10 +6684,10 @@
       <c r="A292" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6452,10 +6695,10 @@
       <c r="A293" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6463,10 +6706,10 @@
       <c r="A294" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6474,10 +6717,10 @@
       <c r="A295" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6485,10 +6728,10 @@
       <c r="A296" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6496,10 +6739,10 @@
       <c r="A297" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6507,10 +6750,10 @@
       <c r="A298" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6518,10 +6761,10 @@
       <c r="A299" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6529,10 +6772,10 @@
       <c r="A300" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6540,10 +6783,10 @@
       <c r="A301" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6551,10 +6794,10 @@
       <c r="A302" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6562,10 +6805,10 @@
       <c r="A303" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6573,10 +6816,10 @@
       <c r="A304" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6584,10 +6827,10 @@
       <c r="A305" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6595,10 +6838,10 @@
       <c r="A306" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6606,10 +6849,10 @@
       <c r="A307" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6617,10 +6860,10 @@
       <c r="A308" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6628,10 +6871,10 @@
       <c r="A309" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6639,10 +6882,10 @@
       <c r="A310" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6650,10 +6893,10 @@
       <c r="A311" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6661,10 +6904,10 @@
       <c r="A312" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6672,10 +6915,10 @@
       <c r="A313" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6683,10 +6926,10 @@
       <c r="A314" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6694,10 +6937,10 @@
       <c r="A315" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6705,10 +6948,10 @@
       <c r="A316" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6716,10 +6959,10 @@
       <c r="A317" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6727,10 +6970,10 @@
       <c r="A318" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6738,10 +6981,10 @@
       <c r="A319" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6749,10 +6992,10 @@
       <c r="A320" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6760,10 +7003,10 @@
       <c r="A321" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6771,10 +7014,10 @@
       <c r="A322" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6782,10 +7025,10 @@
       <c r="A323" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6793,10 +7036,10 @@
       <c r="A324" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6804,10 +7047,10 @@
       <c r="A325" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6815,10 +7058,10 @@
       <c r="A326" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6826,10 +7069,10 @@
       <c r="A327" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6837,10 +7080,10 @@
       <c r="A328" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6848,10 +7091,10 @@
       <c r="A329" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6859,10 +7102,10 @@
       <c r="A330" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6870,10 +7113,10 @@
       <c r="A331" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6881,10 +7124,10 @@
       <c r="A332" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6892,10 +7135,10 @@
       <c r="A333" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6903,10 +7146,10 @@
       <c r="A334" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C334" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6914,10 +7157,10 @@
       <c r="A335" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C335" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6925,10 +7168,10 @@
       <c r="A336" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C336" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6936,10 +7179,10 @@
       <c r="A337" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C337" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6947,10 +7190,10 @@
       <c r="A338" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="C338" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6958,10 +7201,10 @@
       <c r="A339" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="C339" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -6969,10 +7212,10 @@
       <c r="A340" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="C340" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6980,10 +7223,10 @@
       <c r="A341" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C341" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6991,10 +7234,10 @@
       <c r="A342" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C342" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7002,10 +7245,10 @@
       <c r="A343" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C343" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7013,10 +7256,10 @@
       <c r="A344" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C344" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -7024,10 +7267,10 @@
       <c r="A345" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C345" s="2" t="s">
+      <c r="C345" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7035,10 +7278,10 @@
       <c r="A346" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C346" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7046,10 +7289,10 @@
       <c r="A347" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C347" s="2" t="s">
+      <c r="C347" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7057,10 +7300,10 @@
       <c r="A348" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="C348" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7068,10 +7311,10 @@
       <c r="A349" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7079,10 +7322,10 @@
       <c r="A350" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C350" s="2" t="s">
+      <c r="C350" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7090,10 +7333,10 @@
       <c r="A351" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C351" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7101,10 +7344,10 @@
       <c r="A352" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="C352" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7112,10 +7355,10 @@
       <c r="A353" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="C353" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7123,10 +7366,10 @@
       <c r="A354" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="C354" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -7134,10 +7377,10 @@
       <c r="A355" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C355" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7145,10 +7388,10 @@
       <c r="A356" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C356" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7156,10 +7399,10 @@
       <c r="A357" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C357" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7167,10 +7410,10 @@
       <c r="A358" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C358" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7178,10 +7421,10 @@
       <c r="A359" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7189,10 +7432,10 @@
       <c r="A360" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C360" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -7200,10 +7443,10 @@
       <c r="A361" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C361" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7211,10 +7454,10 @@
       <c r="A362" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7222,10 +7465,10 @@
       <c r="A363" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="C363" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7233,10 +7476,10 @@
       <c r="A364" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C364" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7244,10 +7487,10 @@
       <c r="A365" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C365" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7255,10 +7498,10 @@
       <c r="A366" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="C366" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7266,10 +7509,10 @@
       <c r="A367" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="C367" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7277,10 +7520,10 @@
       <c r="A368" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C368" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7288,10 +7531,10 @@
       <c r="A369" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7299,10 +7542,10 @@
       <c r="A370" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7310,10 +7553,10 @@
       <c r="A371" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="C371" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7321,10 +7564,10 @@
       <c r="A372" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="C372" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7332,10 +7575,10 @@
       <c r="A373" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7343,10 +7586,10 @@
       <c r="A374" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C374" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7354,10 +7597,10 @@
       <c r="A375" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="C375" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7365,10 +7608,10 @@
       <c r="A376" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="C376" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7376,10 +7619,10 @@
       <c r="A377" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C377" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7387,10 +7630,10 @@
       <c r="A378" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C378" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7398,10 +7641,10 @@
       <c r="A379" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="C379" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7409,10 +7652,10 @@
       <c r="A380" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7420,10 +7663,10 @@
       <c r="A381" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C381" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7431,10 +7674,10 @@
       <c r="A382" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C382" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7442,10 +7685,10 @@
       <c r="A383" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C383" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7453,10 +7696,10 @@
       <c r="A384" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="C384" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7464,10 +7707,10 @@
       <c r="A385" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C385" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7475,10 +7718,10 @@
       <c r="A386" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C386" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7486,10 +7729,10 @@
       <c r="A387" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="C387" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7497,10 +7740,10 @@
       <c r="A388" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="C388" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7508,10 +7751,10 @@
       <c r="A389" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="C389" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7519,10 +7762,10 @@
       <c r="A390" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C390" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7530,10 +7773,10 @@
       <c r="A391" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C391" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7541,10 +7784,10 @@
       <c r="A392" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="C392" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7552,10 +7795,10 @@
       <c r="A393" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="C393" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7563,10 +7806,10 @@
       <c r="A394" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C394" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7574,10 +7817,10 @@
       <c r="A395" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C395" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7585,10 +7828,10 @@
       <c r="A396" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="C396" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7596,10 +7839,10 @@
       <c r="A397" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C397" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7607,10 +7850,10 @@
       <c r="A398" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C398" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7618,10 +7861,10 @@
       <c r="A399" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="C399" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7629,10 +7872,10 @@
       <c r="A400" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="C400" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7640,10 +7883,10 @@
       <c r="A401" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C401" s="2" t="s">
+      <c r="C401" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7651,10 +7894,10 @@
       <c r="A402" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C402" s="2" t="s">
+      <c r="C402" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7662,10 +7905,10 @@
       <c r="A403" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="C403" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7673,10 +7916,10 @@
       <c r="A404" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="C404" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7684,10 +7927,10 @@
       <c r="A405" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="C405" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7695,10 +7938,10 @@
       <c r="A406" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C406" s="2" t="s">
+      <c r="C406" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7706,10 +7949,10 @@
       <c r="A407" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C407" s="2" t="s">
+      <c r="C407" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7717,10 +7960,10 @@
       <c r="A408" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="C408" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7728,10 +7971,10 @@
       <c r="A409" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="C409" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7739,10 +7982,10 @@
       <c r="A410" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="C410" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7750,10 +7993,10 @@
       <c r="A411" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="C411" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -7761,10 +8004,10 @@
       <c r="A412" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C412" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7772,10 +8015,10 @@
       <c r="A413" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C413" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7783,10 +8026,10 @@
       <c r="A414" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="C414" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7794,10 +8037,10 @@
       <c r="A415" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="C415" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7805,10 +8048,10 @@
       <c r="A416" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="C416" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7816,10 +8059,10 @@
       <c r="A417" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C417" s="2" t="s">
+      <c r="C417" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7827,10 +8070,10 @@
       <c r="A418" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C418" s="2" t="s">
+      <c r="C418" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7838,10 +8081,10 @@
       <c r="A419" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C419" s="2" t="s">
+      <c r="C419" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7849,10 +8092,10 @@
       <c r="A420" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C420" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -7860,10 +8103,10 @@
       <c r="A421" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="C421" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7871,10 +8114,10 @@
       <c r="A422" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C422" s="2" t="s">
+      <c r="C422" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7882,10 +8125,10 @@
       <c r="A423" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="C423" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7893,10 +8136,10 @@
       <c r="A424" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C424" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -7904,10 +8147,10 @@
       <c r="A425" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C425" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7915,10 +8158,10 @@
       <c r="A426" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C426" s="2" t="s">
+      <c r="C426" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7926,10 +8169,10 @@
       <c r="A427" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C427" s="2" t="s">
+      <c r="C427" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7937,10 +8180,10 @@
       <c r="A428" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C428" s="2" t="s">
+      <c r="C428" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7948,10 +8191,10 @@
       <c r="A429" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C429" s="2" t="s">
+      <c r="C429" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7959,10 +8202,10 @@
       <c r="A430" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C430" s="2" t="s">
+      <c r="C430" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7970,10 +8213,10 @@
       <c r="A431" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="C431" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7981,10 +8224,10 @@
       <c r="A432" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="C432" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7992,10 +8235,10 @@
       <c r="A433" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="C433" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8003,10 +8246,10 @@
       <c r="A434" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="C434" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8014,10 +8257,10 @@
       <c r="A435" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="C435" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8025,10 +8268,10 @@
       <c r="A436" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="C436" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8036,10 +8279,10 @@
       <c r="A437" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C437" s="2" t="s">
+      <c r="C437" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8047,10 +8290,10 @@
       <c r="A438" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="C438" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8058,10 +8301,10 @@
       <c r="A439" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="C439" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8069,10 +8312,10 @@
       <c r="A440" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="C440" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8080,10 +8323,10 @@
       <c r="A441" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="C441" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8091,10 +8334,10 @@
       <c r="A442" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C442" s="2" t="s">
+      <c r="C442" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8102,10 +8345,10 @@
       <c r="A443" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="C443" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8113,10 +8356,10 @@
       <c r="A444" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C444" s="2" t="s">
+      <c r="C444" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8124,10 +8367,10 @@
       <c r="A445" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="C445" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8135,10 +8378,10 @@
       <c r="A446" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="C446" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -8146,10 +8389,10 @@
       <c r="A447" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="C447" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8157,10 +8400,10 @@
       <c r="A448" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C448" s="2" t="s">
+      <c r="C448" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8168,10 +8411,10 @@
       <c r="A449" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C449" s="2" t="s">
+      <c r="C449" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8179,10 +8422,10 @@
       <c r="A450" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="C450" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8190,10 +8433,10 @@
       <c r="A451" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="C451" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -8201,10 +8444,10 @@
       <c r="A452" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C452" s="2" t="s">
+      <c r="C452" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -8212,10 +8455,10 @@
       <c r="A453" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="C453" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8223,10 +8466,10 @@
       <c r="A454" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="C454" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8234,10 +8477,10 @@
       <c r="A455" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C455" s="2" t="s">
+      <c r="C455" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8245,10 +8488,10 @@
       <c r="A456" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="C456" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8256,10 +8499,10 @@
       <c r="A457" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="C457" s="2" t="s">
+      <c r="C457" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8267,10 +8510,10 @@
       <c r="A458" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C458" s="2" t="s">
+      <c r="C458" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -8278,10 +8521,10 @@
       <c r="A459" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="C459" s="2" t="s">
+      <c r="C459" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8289,10 +8532,10 @@
       <c r="A460" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="C460" s="2" t="s">
+      <c r="C460" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8300,10 +8543,10 @@
       <c r="A461" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C461" s="2" t="s">
+      <c r="C461" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8311,10 +8554,10 @@
       <c r="A462" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="C462" s="2" t="s">
+      <c r="C462" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8322,10 +8565,10 @@
       <c r="A463" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C463" s="2" t="s">
+      <c r="C463" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8333,10 +8576,10 @@
       <c r="A464" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="C464" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8344,10 +8587,10 @@
       <c r="A465" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C465" s="2" t="s">
+      <c r="C465" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8355,10 +8598,10 @@
       <c r="A466" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C466" s="2" t="s">
+      <c r="C466" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8366,10 +8609,10 @@
       <c r="A467" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="C467" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8377,10 +8620,10 @@
       <c r="A468" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C468" s="2" t="s">
+      <c r="C468" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8388,26 +8631,28 @@
       <c r="A469" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B469" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C469" s="2" t="s">
+      <c r="C469" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="220.8">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="C470" s="2" t="s">
+      <c r="C470" s="6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C470" xr:uid="{FFA85706-B10C-482B-8F7E-48BC05CEEF22}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>